--- a/Documents/RTM/RTM.xlsx
+++ b/Documents/RTM/RTM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sprint2\19-11-2022\Documents\RTM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sprint2\Final\Documents\DESIGN\Documents\RTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C219712-FB1F-4EA2-9304-CBFD03F69E78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215A9C4F-6B14-4D43-A7E6-FE2DB811EE5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7755" xr2:uid="{07BE134B-1FA5-419C-8566-4A6889049BC8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" xr2:uid="{07BE134B-1FA5-419C-8566-4A6889049BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Group members</t>
   </si>
@@ -48,25 +48,13 @@
     <t>Raja Babu</t>
   </si>
   <si>
-    <t>SD3</t>
-  </si>
-  <si>
     <t>Rajyalakshmi</t>
   </si>
   <si>
-    <t>SD4/SD5</t>
-  </si>
-  <si>
     <t>Naveen Kumar</t>
   </si>
   <si>
-    <t>SD2</t>
-  </si>
-  <si>
     <t>Rithvik</t>
-  </si>
-  <si>
-    <t>SD7/SD8</t>
   </si>
   <si>
     <t>[SRS]/01 (70%), [SRS]/02(60%), [SRS]/04, [SRS]/08</t>
@@ -529,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5525E45C-BE05-4455-B056-F29D490BFE05}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,79 +559,71 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
